--- a/Projekt_tabulky.xlsx
+++ b/Projekt_tabulky.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\Programming\Datova_akademie\2_projekt_Power_BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\Programming\Datova_akademie\2_projekt_PowerBI\D_A_PowerBI_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9990" windowHeight="4170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9990" windowHeight="4170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Superbowl" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="733">
   <si>
     <t>Date</t>
   </si>
@@ -2121,13 +2121,112 @@
   </si>
   <si>
     <t>Kick/punt returner</t>
+  </si>
+  <si>
+    <t>Logos</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/177/full/arizona_cardinals_logo_primary_20058304.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/173/full/299.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/153/full/318.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/149/full/n0fd1z6xmhigb0eej3323ebwq.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/174/full/f1wggq2k8ql88fe33jzhw641u.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/169/full/chicago_bears_logo_primary_2023_sportslogosnet-7594.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/154/full/cincinnati_bengals_logo_primary_2021_sportslogosnet-2049.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/155/full/7855_cleveland_browns-primary-2015.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/165/full/406.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/161/full/9ebzja2zfeigaziee8y605aqp.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/170/full/detroit_lions_logo_primary_20172565.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/171/full/dcy03myfhffbki5d7il3.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/157/full/houston_texans_logo_primary_20029725.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/158/full/indianapolis_colts_logo_primary_20043652.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/159/full/jacksonville_jaguars_logo_primary_20132171.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/162/full/857.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/6708/full/8521_las_vegas_raiders-primary-20201.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/6446/full/1660_los_angeles__chargers-primary-20201.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/5941/full/8334_los_angeles_rams-primary-20201.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/150/full/7306_miami_dolphins-primary-2018.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/172/full/2704_minnesota_vikings-primary-20131.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/151/full/new_england_patriots_logo_primary_20005480.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/175/full/907.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/166/full/new_york_giants_logo_primary_20005208.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/152/full/9116_new_york_jets-primary-2019.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/167/full/philadelphia_eagles_logo_primary_19964867.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/156/full/970.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/179/full/9455_san_francisco_49ers-primary-2009.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/180/full/pfiobtreaq7j0pzvadktsc6jv.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/176/full/8363_tampa_bay_buccaneers-primary-2020.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/160/full/1053.png</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/7/6832/full/washington_commanders_logo_primary_20228587.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2299,6 +2398,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2488,7 +2601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2618,8 +2731,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2662,8 +2788,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2674,8 +2801,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % – Zvýraznění1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % – Zvýraznění2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % – Zvýraznění3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2695,6 +2829,7 @@
     <cellStyle name="60 % – Zvýraznění5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60 % – Zvýraznění6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="42" builtinId="8"/>
     <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2719,7 +2854,47 @@
     <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFA2A9B1"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFA2A9B1"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFA2A9B1"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFA2A9B1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3307,7 +3482,7 @@
     <sortCondition ref="A1:A55"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
+    <tableColumn id="1" name="Date" dataDxfId="17"/>
     <tableColumn id="2" name="SB"/>
     <tableColumn id="3" name="Attendance"/>
     <tableColumn id="4" name="Winner"/>
@@ -3337,25 +3512,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A1:N33" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N33"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Team" dataDxfId="13"/>
-    <tableColumn id="2" name="Established" dataDxfId="12"/>
-    <tableColumn id="3" name="RegularSeasonGames" dataDxfId="11"/>
-    <tableColumn id="4" name="RegularSeasonWins" dataDxfId="10"/>
-    <tableColumn id="5" name="RegularSeasonLosts" dataDxfId="9"/>
-    <tableColumn id="6" name="RegularSeasonTies" dataDxfId="8"/>
-    <tableColumn id="7" name="RegularSeasonRate" dataDxfId="7"/>
-    <tableColumn id="8" name="PostSeasonGames" dataDxfId="6"/>
-    <tableColumn id="9" name="PostSeasonWins" dataDxfId="5"/>
-    <tableColumn id="10" name="PostSeasonLosts" dataDxfId="4"/>
-    <tableColumn id="11" name="PostSeasonRate" dataDxfId="3"/>
-    <tableColumn id="12" name="Championchips" dataDxfId="2"/>
-    <tableColumn id="13" name="Superbowls" dataDxfId="1"/>
-    <tableColumn id="14" name="ConferenceChampionchips" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A1:O33" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O33"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Team" dataDxfId="14"/>
+    <tableColumn id="2" name="Established" dataDxfId="13"/>
+    <tableColumn id="3" name="RegularSeasonGames" dataDxfId="12"/>
+    <tableColumn id="4" name="RegularSeasonWins" dataDxfId="11"/>
+    <tableColumn id="5" name="RegularSeasonLosts" dataDxfId="10"/>
+    <tableColumn id="6" name="RegularSeasonTies" dataDxfId="9"/>
+    <tableColumn id="7" name="RegularSeasonRate" dataDxfId="8"/>
+    <tableColumn id="8" name="PostSeasonGames" dataDxfId="7"/>
+    <tableColumn id="9" name="PostSeasonWins" dataDxfId="6"/>
+    <tableColumn id="10" name="PostSeasonLosts" dataDxfId="5"/>
+    <tableColumn id="11" name="PostSeasonRate" dataDxfId="4"/>
+    <tableColumn id="12" name="Championchips" dataDxfId="3"/>
+    <tableColumn id="13" name="Superbowls" dataDxfId="2"/>
+    <tableColumn id="14" name="ConferenceChampionchips" dataDxfId="1"/>
+    <tableColumn id="15" name="Logos" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7926,7 +8102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -9108,10 +9284,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9128,9 +9307,10 @@
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="124.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>555</v>
       </c>
@@ -9173,8 +9353,11 @@
       <c r="N1" s="4" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>388</v>
       </c>
@@ -9217,8 +9400,11 @@
       <c r="N2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>413</v>
       </c>
@@ -9261,8 +9447,11 @@
       <c r="N3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -9305,8 +9494,11 @@
       <c r="N4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -9349,8 +9541,11 @@
       <c r="N5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>273</v>
       </c>
@@ -9393,8 +9588,11 @@
       <c r="N6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>239</v>
       </c>
@@ -9437,8 +9635,11 @@
       <c r="N7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>217</v>
       </c>
@@ -9481,8 +9682,11 @@
       <c r="N8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>556</v>
       </c>
@@ -9525,8 +9729,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>149</v>
       </c>
@@ -9569,8 +9776,11 @@
       <c r="N10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
@@ -9613,8 +9823,11 @@
       <c r="N11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>557</v>
       </c>
@@ -9657,8 +9870,11 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
@@ -9701,8 +9917,11 @@
       <c r="N13" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>558</v>
       </c>
@@ -9745,8 +9964,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -9789,8 +10011,11 @@
       <c r="N15" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O15" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>559</v>
       </c>
@@ -9833,8 +10058,11 @@
       <c r="N16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -9877,8 +10105,11 @@
       <c r="N17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>591</v>
       </c>
@@ -9921,8 +10152,11 @@
       <c r="N18" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>593</v>
       </c>
@@ -9965,8 +10199,11 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>319</v>
       </c>
@@ -10009,8 +10246,11 @@
       <c r="N20" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>170</v>
       </c>
@@ -10053,8 +10293,11 @@
       <c r="N21" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>172</v>
       </c>
@@ -10097,8 +10340,11 @@
       <c r="N22" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -10141,8 +10387,11 @@
       <c r="N23" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>126</v>
       </c>
@@ -10185,8 +10434,11 @@
       <c r="N24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -10229,8 +10481,11 @@
       <c r="N25" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O25" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>163</v>
       </c>
@@ -10273,8 +10528,11 @@
       <c r="N26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -10317,8 +10575,11 @@
       <c r="N27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>199</v>
       </c>
@@ -10361,8 +10622,11 @@
       <c r="N28" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O28" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>188</v>
       </c>
@@ -10405,8 +10669,11 @@
       <c r="N29" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O29" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -10449,8 +10716,11 @@
       <c r="N30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -10493,8 +10763,11 @@
       <c r="N31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
@@ -10537,8 +10810,11 @@
       <c r="N32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>613</v>
       </c>
@@ -10581,11 +10857,48 @@
       <c r="N33" s="3">
         <v>5</v>
       </c>
+      <c r="O33" s="8" t="s">
+        <v>732</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O26" r:id="rId25"/>
+    <hyperlink ref="O27" r:id="rId26"/>
+    <hyperlink ref="O28" r:id="rId27"/>
+    <hyperlink ref="O29" r:id="rId28"/>
+    <hyperlink ref="O30" r:id="rId29"/>
+    <hyperlink ref="O31" r:id="rId30"/>
+    <hyperlink ref="O32" r:id="rId31"/>
+    <hyperlink ref="O33" r:id="rId32"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Projekt_tabulky.xlsx
+++ b/Projekt_tabulky.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="680">
   <si>
     <t>Date</t>
   </si>
@@ -1703,172 +1703,13 @@
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
-    <t>.426</t>
-  </si>
-  <si>
-    <t>.412</t>
-  </si>
-  <si>
-    <t>.438</t>
-  </si>
-  <si>
-    <t>.417</t>
-  </si>
-  <si>
-    <t>.561</t>
-  </si>
-  <si>
-    <t>.571</t>
-  </si>
-  <si>
-    <t>.483</t>
-  </si>
-  <si>
-    <t>.474</t>
-  </si>
-  <si>
-    <t>.472</t>
-  </si>
-  <si>
-    <t>.529</t>
-  </si>
-  <si>
-    <t>.556</t>
-  </si>
-  <si>
-    <t>.459</t>
-  </si>
-  <si>
-    <t>.454</t>
-  </si>
-  <si>
-    <t>.385</t>
-  </si>
-  <si>
-    <t>.509</t>
-  </si>
-  <si>
-    <t>.447</t>
-  </si>
-  <si>
-    <t>.574</t>
-  </si>
-  <si>
-    <t>.545</t>
-  </si>
-  <si>
-    <t>.523</t>
-  </si>
-  <si>
-    <t>.548</t>
-  </si>
-  <si>
-    <t>.453</t>
-  </si>
-  <si>
-    <t>.350</t>
-  </si>
-  <si>
-    <t>.590</t>
-  </si>
-  <si>
-    <t>.422</t>
-  </si>
-  <si>
-    <t>.400</t>
-  </si>
-  <si>
-    <t>.526</t>
-  </si>
-  <si>
-    <t>.479</t>
-  </si>
-  <si>
-    <t>.420</t>
-  </si>
-  <si>
-    <t>.500</t>
-  </si>
-  <si>
-    <t>.546</t>
-  </si>
-  <si>
-    <t>.488</t>
-  </si>
-  <si>
     <t>Las Vegas Raiders</t>
   </si>
   <si>
-    <t>.520</t>
-  </si>
-  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
-    <t>.501</t>
-  </si>
-  <si>
-    <t>.387</t>
-  </si>
-  <si>
-    <t>.505</t>
-  </si>
-  <si>
-    <t>.491</t>
-  </si>
-  <si>
-    <t>.551</t>
-  </si>
-  <si>
-    <t>.476</t>
-  </si>
-  <si>
-    <t>.404</t>
-  </si>
-  <si>
-    <t>.627</t>
-  </si>
-  <si>
-    <t>.467</t>
-  </si>
-  <si>
-    <t>.435</t>
-  </si>
-  <si>
-    <t>.528</t>
-  </si>
-  <si>
-    <t>.490</t>
-  </si>
-  <si>
-    <t>.440</t>
-  </si>
-  <si>
-    <t>.480</t>
-  </si>
-  <si>
-    <t>.493</t>
-  </si>
-  <si>
-    <t>.532</t>
-  </si>
-  <si>
-    <t>.607</t>
-  </si>
-  <si>
-    <t>.517</t>
-  </si>
-  <si>
-    <t>.425</t>
-  </si>
-  <si>
     <t>Washington Commanders</t>
-  </si>
-  <si>
-    <t>.498</t>
-  </si>
-  <si>
-    <t>.535</t>
   </si>
   <si>
     <t>Established</t>
@@ -2226,6 +2067,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2790,7 +2634,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2806,6 +2650,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3521,11 +3371,15 @@
     <tableColumn id="4" name="RegularSeasonWins" dataDxfId="11"/>
     <tableColumn id="5" name="RegularSeasonLosts" dataDxfId="10"/>
     <tableColumn id="6" name="RegularSeasonTies" dataDxfId="9"/>
-    <tableColumn id="7" name="RegularSeasonRate" dataDxfId="8"/>
+    <tableColumn id="7" name="RegularSeasonRate" dataDxfId="8">
+      <calculatedColumnFormula>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" name="PostSeasonGames" dataDxfId="7"/>
     <tableColumn id="9" name="PostSeasonWins" dataDxfId="6"/>
     <tableColumn id="10" name="PostSeasonLosts" dataDxfId="5"/>
-    <tableColumn id="11" name="PostSeasonRate" dataDxfId="4"/>
+    <tableColumn id="11" name="PostSeasonRate" dataDxfId="4">
+      <calculatedColumnFormula>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="12" name="Championchips" dataDxfId="3"/>
     <tableColumn id="13" name="Superbowls" dataDxfId="2"/>
     <tableColumn id="14" name="ConferenceChampionchips" dataDxfId="1"/>
@@ -6955,7 +6809,7 @@
         <v>3</v>
       </c>
       <c r="Q43" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="R43" t="s">
         <v>381</v>
@@ -8118,10 +7972,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>698</v>
+        <v>645</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>630</v>
+        <v>577</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -8130,10 +7984,10 @@
         <v>555</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>631</v>
+        <v>578</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8150,10 +8004,10 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F2" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8167,13 +8021,13 @@
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="E3" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F3" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8190,10 +8044,10 @@
         <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,10 +8064,10 @@
         <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F5" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8230,10 +8084,10 @@
         <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="F6" t="s">
-        <v>637</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,13 +8101,13 @@
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="E7" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F7" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8270,7 +8124,7 @@
         <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -8287,13 +8141,13 @@
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>674</v>
+        <v>621</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="F9" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,10 +8164,10 @@
         <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="F10" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8327,13 +8181,13 @@
         <v>510</v>
       </c>
       <c r="D11" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="E11" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8350,10 +8204,10 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F12" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8364,16 +8218,16 @@
         <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>697</v>
+        <v>644</v>
       </c>
       <c r="D13" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="E13" t="s">
-        <v>646</v>
+        <v>593</v>
       </c>
       <c r="F13" t="s">
-        <v>647</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8387,13 +8241,13 @@
         <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="E14" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F14" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8407,13 +8261,13 @@
         <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="E15" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F15" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8427,13 +8281,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
+        <v>625</v>
       </c>
       <c r="E16" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F16" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8450,10 +8304,10 @@
         <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F17" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,10 +8324,10 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="F18" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8487,13 +8341,13 @@
         <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>691</v>
+        <v>638</v>
       </c>
       <c r="E19" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="F19" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8507,13 +8361,13 @@
         <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="E20" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F20" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8530,10 +8384,10 @@
         <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="F21" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8550,10 +8404,10 @@
         <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F22" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8567,13 +8421,13 @@
         <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>681</v>
+        <v>628</v>
       </c>
       <c r="E23" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F23" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8587,13 +8441,13 @@
         <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="E24" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F24" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,13 +8461,13 @@
         <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F25" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8627,10 +8481,10 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="E26" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="F26" t="s">
         <v>147</v>
@@ -8647,13 +8501,13 @@
         <v>493</v>
       </c>
       <c r="D27" t="s">
-        <v>681</v>
+        <v>628</v>
       </c>
       <c r="E27" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F27" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8667,13 +8521,13 @@
         <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="E28" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F28" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8687,10 +8541,10 @@
         <v>435</v>
       </c>
       <c r="D29" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="E29" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="F29" t="s">
         <v>87</v>
@@ -8707,13 +8561,13 @@
         <v>469</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="E30" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8727,13 +8581,13 @@
         <v>366</v>
       </c>
       <c r="D31" t="s">
-        <v>673</v>
+        <v>620</v>
       </c>
       <c r="E31" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="F31" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8747,10 +8601,10 @@
         <v>498</v>
       </c>
       <c r="D32" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="E32" t="s">
-        <v>699</v>
+        <v>646</v>
       </c>
       <c r="F32" t="s">
         <v>300</v>
@@ -8770,7 +8624,7 @@
         <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="F33" t="s">
         <v>104</v>
@@ -8787,13 +8641,13 @@
         <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
       <c r="E34" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F34" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8810,10 +8664,10 @@
         <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="F35" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8830,7 +8684,7 @@
         <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>684</v>
+        <v>631</v>
       </c>
       <c r="F36" t="s">
         <v>147</v>
@@ -8850,7 +8704,7 @@
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F37" t="s">
         <v>300</v>
@@ -8870,10 +8724,10 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>685</v>
+        <v>632</v>
       </c>
       <c r="F38" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8884,13 +8738,13 @@
         <v>506</v>
       </c>
       <c r="C39" t="s">
-        <v>692</v>
+        <v>639</v>
       </c>
       <c r="D39" t="s">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="E39" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F39" t="s">
         <v>300</v>
@@ -8907,13 +8761,13 @@
         <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="E40" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F40" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8927,10 +8781,10 @@
         <v>476</v>
       </c>
       <c r="D41" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="E41" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F41" t="s">
         <v>104</v>
@@ -8950,10 +8804,10 @@
         <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F42" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8967,13 +8821,13 @@
         <v>336</v>
       </c>
       <c r="D43" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="E43" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F43" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8987,13 +8841,13 @@
         <v>390</v>
       </c>
       <c r="D44" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="E44" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F44" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9004,16 +8858,16 @@
         <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>693</v>
+        <v>640</v>
       </c>
       <c r="D45" t="s">
         <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F45" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9027,10 +8881,10 @@
         <v>396</v>
       </c>
       <c r="D46" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="E46" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F46" t="s">
         <v>50</v>
@@ -9044,16 +8898,16 @@
         <v>335</v>
       </c>
       <c r="C47" t="s">
-        <v>694</v>
+        <v>641</v>
       </c>
       <c r="D47" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="E47" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F47" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9067,13 +8921,13 @@
         <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>687</v>
+        <v>634</v>
       </c>
       <c r="E48" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F48" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9090,10 +8944,10 @@
         <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>684</v>
+        <v>631</v>
       </c>
       <c r="F49" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9104,13 +8958,13 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>692</v>
+        <v>639</v>
       </c>
       <c r="D50" t="s">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="E50" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F50" t="s">
         <v>300</v>
@@ -9127,13 +8981,13 @@
         <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
       <c r="E51" t="s">
-        <v>684</v>
+        <v>631</v>
       </c>
       <c r="F51" t="s">
-        <v>667</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9144,13 +8998,13 @@
         <v>412</v>
       </c>
       <c r="C52" t="s">
-        <v>692</v>
+        <v>639</v>
       </c>
       <c r="D52" t="s">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="E52" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F52" t="s">
         <v>300</v>
@@ -9170,7 +9024,7 @@
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F53" t="s">
         <v>68</v>
@@ -9187,13 +9041,13 @@
         <v>322</v>
       </c>
       <c r="D54" t="s">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="E54" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F54" t="s">
-        <v>668</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9207,13 +9061,13 @@
         <v>422</v>
       </c>
       <c r="D55" t="s">
-        <v>688</v>
+        <v>635</v>
       </c>
       <c r="E55" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F55" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9224,13 +9078,13 @@
         <v>518</v>
       </c>
       <c r="C56" t="s">
-        <v>695</v>
+        <v>642</v>
       </c>
       <c r="D56" t="s">
-        <v>689</v>
+        <v>636</v>
       </c>
       <c r="E56" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F56" t="s">
         <v>300</v>
@@ -9244,16 +9098,16 @@
         <v>519</v>
       </c>
       <c r="C57" t="s">
-        <v>696</v>
+        <v>643</v>
       </c>
       <c r="D57" t="s">
-        <v>690</v>
+        <v>637</v>
       </c>
       <c r="E57" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="F57" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9267,13 +9121,13 @@
         <v>422</v>
       </c>
       <c r="D58" t="s">
-        <v>688</v>
+        <v>635</v>
       </c>
       <c r="E58" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F58" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -9290,7 +9144,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9315,46 +9169,46 @@
         <v>555</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>617</v>
+        <v>564</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>619</v>
+        <v>566</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>621</v>
+        <v>568</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>622</v>
+        <v>569</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>700</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9364,8 +9218,8 @@
       <c r="B2" s="2">
         <v>1920</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.4139999999999999</v>
+      <c r="C2" s="9">
+        <v>1414</v>
       </c>
       <c r="D2" s="3">
         <v>582</v>
@@ -9376,8 +9230,9 @@
       <c r="F2" s="3">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>560</v>
+      <c r="G2" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.4115983026874116</v>
       </c>
       <c r="H2" s="3">
         <v>17</v>
@@ -9388,8 +9243,9 @@
       <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>561</v>
+      <c r="K2" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="L2" s="3">
         <v>2</v>
@@ -9401,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>701</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9423,8 +9279,9 @@
       <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>562</v>
+      <c r="G3" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.4342403628117914</v>
       </c>
       <c r="H3" s="3">
         <v>24</v>
@@ -9435,8 +9292,9 @@
       <c r="J3" s="3">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>563</v>
+      <c r="K3" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -9448,7 +9306,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>702</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9470,8 +9328,9 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>564</v>
+      <c r="G4" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.55990783410138245</v>
       </c>
       <c r="H4" s="3">
         <v>28</v>
@@ -9482,8 +9341,9 @@
       <c r="J4" s="3">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>565</v>
+      <c r="K4" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L4" s="3">
         <v>2</v>
@@ -9495,7 +9355,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>703</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9517,8 +9377,9 @@
       <c r="F5" s="3">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>566</v>
+      <c r="G5" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.47875647668393784</v>
       </c>
       <c r="H5" s="3">
         <v>38</v>
@@ -9529,8 +9390,9 @@
       <c r="J5" s="3">
         <v>20</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>567</v>
+      <c r="K5" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.47368421052631576</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
@@ -9542,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>704</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9564,8 +9426,9 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>568</v>
+      <c r="G6" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.47111111111111109</v>
       </c>
       <c r="H6" s="3">
         <v>17</v>
@@ -9576,8 +9439,9 @@
       <c r="J6" s="3">
         <v>8</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>569</v>
+      <c r="K6" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -9589,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>705</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9599,8 +9463,8 @@
       <c r="B7" s="2">
         <v>1920</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.452</v>
+      <c r="C7" s="9">
+        <v>1452</v>
       </c>
       <c r="D7" s="3">
         <v>786</v>
@@ -9611,8 +9475,9 @@
       <c r="F7" s="3">
         <v>42</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>570</v>
+      <c r="G7" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.54132231404958675</v>
       </c>
       <c r="H7" s="3">
         <v>37</v>
@@ -9623,8 +9488,9 @@
       <c r="J7" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>571</v>
+      <c r="K7" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.45945945945945948</v>
       </c>
       <c r="L7" s="3">
         <v>10</v>
@@ -9636,7 +9502,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>706</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9658,8 +9524,9 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>572</v>
+      <c r="G8" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.45134818288393902</v>
       </c>
       <c r="H8" s="3">
         <v>26</v>
@@ -9670,8 +9537,9 @@
       <c r="J8" s="3">
         <v>16</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>573</v>
+      <c r="K8" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -9683,7 +9551,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>707</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9694,7 +9562,7 @@
         <v>1946</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0900000000000001</v>
+        <v>1090</v>
       </c>
       <c r="D9" s="3">
         <v>548</v>
@@ -9705,8 +9573,9 @@
       <c r="F9" s="3">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>574</v>
+      <c r="G9" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.50275229357798168</v>
       </c>
       <c r="H9" s="3">
         <v>38</v>
@@ -9717,8 +9586,9 @@
       <c r="J9" s="3">
         <v>21</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>575</v>
+      <c r="K9" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.44736842105263158</v>
       </c>
       <c r="L9" s="3">
         <v>8</v>
@@ -9730,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>708</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9752,8 +9622,9 @@
       <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>576</v>
+      <c r="G10" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.5705394190871369</v>
       </c>
       <c r="H10" s="3">
         <v>66</v>
@@ -9764,8 +9635,9 @@
       <c r="J10" s="3">
         <v>30</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>577</v>
+      <c r="K10" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.54545454545454541</v>
       </c>
       <c r="L10" s="3">
         <v>5</v>
@@ -9777,7 +9649,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>709</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9799,8 +9671,9 @@
       <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>578</v>
+      <c r="G11" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.51759834368530022</v>
       </c>
       <c r="H11" s="3">
         <v>42</v>
@@ -9811,8 +9684,9 @@
       <c r="J11" s="3">
         <v>19</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>579</v>
+      <c r="K11" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.54761904761904767</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
@@ -9824,7 +9698,7 @@
         <v>8</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>710</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9834,8 +9708,8 @@
       <c r="B12" s="2">
         <v>1930</v>
       </c>
-      <c r="C12" s="3">
-        <v>1.3149999999999999</v>
+      <c r="C12" s="9">
+        <v>1315</v>
       </c>
       <c r="D12" s="3">
         <v>579</v>
@@ -9846,8 +9720,9 @@
       <c r="F12" s="3">
         <v>34</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>580</v>
+      <c r="G12" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.4403041825095057</v>
       </c>
       <c r="H12" s="3">
         <v>20</v>
@@ -9858,8 +9733,9 @@
       <c r="J12" s="3">
         <v>13</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>581</v>
+      <c r="K12" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.35</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
@@ -9871,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>711</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9881,8 +9757,8 @@
       <c r="B13" s="2">
         <v>1921</v>
       </c>
-      <c r="C13" s="3">
-        <v>1.4179999999999999</v>
+      <c r="C13" s="9">
+        <v>1418</v>
       </c>
       <c r="D13" s="3">
         <v>790</v>
@@ -9893,8 +9769,9 @@
       <c r="F13" s="3">
         <v>38</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>565</v>
+      <c r="G13" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.55712270803949226</v>
       </c>
       <c r="H13" s="3">
         <v>61</v>
@@ -9905,8 +9782,9 @@
       <c r="J13" s="3">
         <v>25</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>582</v>
+      <c r="K13" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L13" s="3">
         <v>13</v>
@@ -9918,7 +9796,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>712</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9940,8 +9818,9 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>583</v>
+      <c r="G14" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.42011834319526625</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
@@ -9952,8 +9831,9 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>584</v>
+      <c r="K14" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -9965,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>713</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9975,8 +9855,8 @@
       <c r="B15" s="2">
         <v>1953</v>
       </c>
-      <c r="C15" s="3">
-        <v>1.048</v>
+      <c r="C15" s="9">
+        <v>1048</v>
       </c>
       <c r="D15" s="3">
         <v>547</v>
@@ -9987,8 +9867,9 @@
       <c r="F15" s="3">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>585</v>
+      <c r="G15" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.52194656488549618</v>
       </c>
       <c r="H15" s="3">
         <v>48</v>
@@ -9999,8 +9880,9 @@
       <c r="J15" s="3">
         <v>25</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>586</v>
+      <c r="K15" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.47916666666666669</v>
       </c>
       <c r="L15" s="3">
         <v>4</v>
@@ -10012,7 +9894,7 @@
         <v>4</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>714</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10034,8 +9916,9 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>587</v>
+      <c r="G16" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.42</v>
       </c>
       <c r="H16" s="3">
         <v>16</v>
@@ -10046,8 +9929,9 @@
       <c r="J16" s="3">
         <v>8</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>588</v>
+      <c r="K16" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.5</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -10059,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>715</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10081,8 +9965,9 @@
       <c r="F17" s="3">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>589</v>
+      <c r="G17" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.53933747412008282</v>
       </c>
       <c r="H17" s="3">
         <v>41</v>
@@ -10093,8 +9978,9 @@
       <c r="J17" s="3">
         <v>21</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>590</v>
+      <c r="K17" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.48780487804878048</v>
       </c>
       <c r="L17" s="3">
         <v>4</v>
@@ -10106,12 +9992,12 @@
         <v>5</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>716</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="B18" s="2">
         <v>1960</v>
@@ -10128,8 +10014,9 @@
       <c r="F18" s="3">
         <v>11</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>592</v>
+      <c r="G18" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.51449275362318836</v>
       </c>
       <c r="H18" s="3">
         <v>45</v>
@@ -10140,8 +10027,9 @@
       <c r="J18" s="3">
         <v>20</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>570</v>
+      <c r="K18" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L18" s="3">
         <v>3</v>
@@ -10153,12 +10041,12 @@
         <v>5</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>717</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="B19" s="2">
         <v>1960</v>
@@ -10175,8 +10063,9 @@
       <c r="F19" s="3">
         <v>11</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>594</v>
+      <c r="G19" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.49482401656314701</v>
       </c>
       <c r="H19" s="3">
         <v>31</v>
@@ -10187,8 +10076,9 @@
       <c r="J19" s="3">
         <v>19</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>595</v>
+      <c r="K19" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.38709677419354838</v>
       </c>
       <c r="L19" s="3">
         <v>1</v>
@@ -10200,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>718</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10210,8 +10100,8 @@
       <c r="B20" s="2">
         <v>1937</v>
       </c>
-      <c r="C20" s="3">
-        <v>1.2170000000000001</v>
+      <c r="C20" s="9">
+        <v>1217</v>
       </c>
       <c r="D20" s="3">
         <v>604</v>
@@ -10222,8 +10112,9 @@
       <c r="F20" s="3">
         <v>21</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>596</v>
+      <c r="G20" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.49630238290879214</v>
       </c>
       <c r="H20" s="3">
         <v>53</v>
@@ -10234,8 +10125,9 @@
       <c r="J20" s="3">
         <v>27</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>597</v>
+      <c r="K20" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.49056603773584906</v>
       </c>
       <c r="L20" s="3">
         <v>4</v>
@@ -10247,7 +10139,7 @@
         <v>5</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10269,8 +10161,9 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>598</v>
+      <c r="G21" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.54835039817974973</v>
       </c>
       <c r="H21" s="3">
         <v>42</v>
@@ -10281,8 +10174,9 @@
       <c r="J21" s="3">
         <v>22</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>599</v>
+      <c r="K21" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.47619047619047616</v>
       </c>
       <c r="L21" s="3">
         <v>2</v>
@@ -10294,7 +10188,7 @@
         <v>5</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>720</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10316,8 +10210,9 @@
       <c r="F22" s="3">
         <v>11</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>579</v>
+      <c r="G22" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.54201680672268904</v>
       </c>
       <c r="H22" s="3">
         <v>52</v>
@@ -10328,8 +10223,9 @@
       <c r="J22" s="3">
         <v>31</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>600</v>
+      <c r="K22" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.40384615384615385</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -10341,7 +10237,7 @@
         <v>4</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>721</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10363,8 +10259,9 @@
       <c r="F23" s="3">
         <v>9</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>564</v>
+      <c r="G23" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.55590062111801242</v>
       </c>
       <c r="H23" s="3">
         <v>59</v>
@@ -10375,8 +10272,9 @@
       <c r="J23" s="3">
         <v>22</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>601</v>
+      <c r="K23" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L23" s="3">
         <v>6</v>
@@ -10388,7 +10286,7 @@
         <v>11</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>722</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10410,8 +10308,9 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>602</v>
+      <c r="G24" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H24" s="3">
         <v>23</v>
@@ -10422,8 +10321,9 @@
       <c r="J24" s="3">
         <v>13</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>603</v>
+      <c r="K24" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -10435,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>723</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10445,8 +10345,8 @@
       <c r="B25" s="2">
         <v>1925</v>
       </c>
-      <c r="C25" s="3">
-        <v>1.387</v>
+      <c r="C25" s="9">
+        <v>1387</v>
       </c>
       <c r="D25" s="3">
         <v>715</v>
@@ -10457,8 +10357,9 @@
       <c r="F25" s="3">
         <v>34</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>604</v>
+      <c r="G25" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.51550108147080032</v>
       </c>
       <c r="H25" s="3">
         <v>51</v>
@@ -10469,8 +10370,9 @@
       <c r="J25" s="3">
         <v>26</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>605</v>
+      <c r="K25" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.49019607843137253</v>
       </c>
       <c r="L25" s="3">
         <v>8</v>
@@ -10482,7 +10384,7 @@
         <v>5</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>724</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10504,8 +10406,9 @@
       <c r="F26" s="3">
         <v>8</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>606</v>
+      <c r="G26" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.43581780538302278</v>
       </c>
       <c r="H26" s="3">
         <v>25</v>
@@ -10516,8 +10419,9 @@
       <c r="J26" s="3">
         <v>13</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>607</v>
+      <c r="K26" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.48</v>
       </c>
       <c r="L26" s="3">
         <v>1</v>
@@ -10529,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>725</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10540,7 +10444,7 @@
         <v>1933</v>
       </c>
       <c r="C27" s="3">
-        <v>1.27</v>
+        <v>1270</v>
       </c>
       <c r="D27" s="3">
         <v>613</v>
@@ -10551,8 +10455,9 @@
       <c r="F27" s="3">
         <v>27</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>608</v>
+      <c r="G27" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.4826771653543307</v>
       </c>
       <c r="H27" s="3">
         <v>50</v>
@@ -10563,8 +10468,9 @@
       <c r="J27" s="3">
         <v>25</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>588</v>
+      <c r="K27" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.5</v>
       </c>
       <c r="L27" s="3">
         <v>4</v>
@@ -10576,7 +10482,7 @@
         <v>4</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>726</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10586,8 +10492,8 @@
       <c r="B28" s="2">
         <v>1933</v>
       </c>
-      <c r="C28" s="3">
-        <v>1.274</v>
+      <c r="C28" s="9">
+        <v>1274</v>
       </c>
       <c r="D28" s="3">
         <v>666</v>
@@ -10598,8 +10504,9 @@
       <c r="F28" s="3">
         <v>23</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>609</v>
+      <c r="G28" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.52276295133437989</v>
       </c>
       <c r="H28" s="3">
         <v>63</v>
@@ -10610,8 +10517,9 @@
       <c r="J28" s="3">
         <v>27</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>565</v>
+      <c r="K28" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28" s="3">
         <v>6</v>
@@ -10623,7 +10531,7 @@
         <v>8</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>727</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10633,8 +10541,8 @@
       <c r="B29" s="2">
         <v>1946</v>
       </c>
-      <c r="C29" s="3">
-        <v>1.1379999999999999</v>
+      <c r="C29" s="9">
+        <v>1138</v>
       </c>
       <c r="D29" s="3">
         <v>612</v>
@@ -10645,8 +10553,9 @@
       <c r="F29" s="3">
         <v>16</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>577</v>
+      <c r="G29" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.53778558875219684</v>
       </c>
       <c r="H29" s="3">
         <v>61</v>
@@ -10657,8 +10566,9 @@
       <c r="J29" s="3">
         <v>24</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>610</v>
+      <c r="K29" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.60655737704918034</v>
       </c>
       <c r="L29" s="3">
         <v>5</v>
@@ -10670,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>728</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10692,8 +10602,9 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>611</v>
+      <c r="G30" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.51617250673854442</v>
       </c>
       <c r="H30" s="3">
         <v>36</v>
@@ -10704,8 +10615,9 @@
       <c r="J30" s="3">
         <v>19</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>568</v>
+      <c r="K30" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.47222222222222221</v>
       </c>
       <c r="L30" s="3">
         <v>1</v>
@@ -10717,7 +10629,7 @@
         <v>3</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>729</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10739,8 +10651,9 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>600</v>
+      <c r="G31" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.40296495956873313</v>
       </c>
       <c r="H31" s="3">
         <v>22</v>
@@ -10751,8 +10664,9 @@
       <c r="J31" s="3">
         <v>11</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>588</v>
+      <c r="K31" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.5</v>
       </c>
       <c r="L31" s="3">
         <v>2</v>
@@ -10764,7 +10678,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>730</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10786,8 +10700,9 @@
       <c r="F32" s="3">
         <v>6</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>605</v>
+      <c r="G32" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.48654244306418221</v>
       </c>
       <c r="H32" s="3">
         <v>40</v>
@@ -10798,8 +10713,9 @@
       <c r="J32" s="3">
         <v>23</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>612</v>
+      <c r="K32" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="L32" s="3">
         <v>2</v>
@@ -10811,18 +10727,18 @@
         <v>1</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>731</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="B33" s="2">
         <v>1932</v>
       </c>
-      <c r="C33" s="3">
-        <v>1.284</v>
+      <c r="C33" s="9">
+        <v>1284</v>
       </c>
       <c r="D33" s="3">
         <v>625</v>
@@ -10833,8 +10749,9 @@
       <c r="F33" s="3">
         <v>29</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>614</v>
+      <c r="G33" s="10">
+        <f>Tabulka2[[#This Row],[RegularSeasonWins]]/Tabulka2[[#This Row],[RegularSeasonGames]]</f>
+        <v>0.48676012461059193</v>
       </c>
       <c r="H33" s="3">
         <v>43</v>
@@ -10845,8 +10762,9 @@
       <c r="J33" s="3">
         <v>20</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>615</v>
+      <c r="K33" s="10">
+        <f>Tabulka2[[#This Row],[PostSeasonWins]]/Tabulka2[[#This Row],[PostSeasonGames]]</f>
+        <v>0.53488372093023251</v>
       </c>
       <c r="L33" s="3">
         <v>5</v>
@@ -10858,7 +10776,7 @@
         <v>5</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>732</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
